--- a/data/trans_orig/PER_DISPO_VERDE-Edad-trans_orig.xlsx
+++ b/data/trans_orig/PER_DISPO_VERDE-Edad-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción de la disponibilidad de zonas verdes en Barcelona</t>
+          <t>Percepción de la disponibilidad de zonas verdes en Barcelona (tasa de respuesta: 99,83%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/PER_DISPO_VERDE-Edad-trans_orig.xlsx
+++ b/data/trans_orig/PER_DISPO_VERDE-Edad-trans_orig.xlsx
@@ -738,12 +738,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>54777</t>
+          <t>54984</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>61082</t>
+          <t>60835</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>84,7%</t>
+          <t>85,02%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>94,45%</t>
+          <t>94,06%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -773,12 +773,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>50046</t>
+          <t>50873</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>57396</t>
+          <t>57544</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -788,12 +788,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>81,32%</t>
+          <t>82,67%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>93,27%</t>
+          <t>93,51%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -808,12 +808,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>107691</t>
+          <t>108271</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>117044</t>
+          <t>116966</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -823,12 +823,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>85,32%</t>
+          <t>85,78%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>92,73%</t>
+          <t>92,67%</t>
         </is>
       </c>
     </row>
@@ -851,12 +851,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3591</t>
+          <t>3838</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9896</t>
+          <t>9689</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -866,12 +866,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,3%</t>
+          <t>14,98%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4144</t>
+          <t>3996</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>11494</t>
+          <t>10667</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -901,12 +901,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>18,68%</t>
+          <t>17,33%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>9170</t>
+          <t>9248</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>18523</t>
+          <t>17943</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>7,27%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>14,68%</t>
+          <t>14,22%</t>
         </is>
       </c>
     </row>
@@ -1081,12 +1081,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>98459</t>
+          <t>98203</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>110071</t>
+          <t>109170</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1096,12 +1096,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>80,77%</t>
+          <t>80,56%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>90,29%</t>
+          <t>89,55%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1116,12 +1116,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>105028</t>
+          <t>103977</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>116268</t>
+          <t>116286</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1131,12 +1131,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>82,03%</t>
+          <t>81,21%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>90,81%</t>
+          <t>90,83%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1151,12 +1151,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>205899</t>
+          <t>205925</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>223008</t>
+          <t>222712</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1166,12 +1166,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>82,38%</t>
+          <t>82,39%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>89,23%</t>
+          <t>89,11%</t>
         </is>
       </c>
     </row>
@@ -1194,12 +1194,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11833</t>
+          <t>12734</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>23445</t>
+          <t>23701</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1209,12 +1209,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,71%</t>
+          <t>10,45%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>19,23%</t>
+          <t>19,44%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1229,12 +1229,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>11763</t>
+          <t>11745</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>23003</t>
+          <t>24054</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1244,12 +1244,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>9,19%</t>
+          <t>9,17%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>17,97%</t>
+          <t>18,79%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1264,12 +1264,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>26926</t>
+          <t>27222</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>44035</t>
+          <t>44009</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1279,12 +1279,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>10,77%</t>
+          <t>10,89%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>17,62%</t>
+          <t>17,61%</t>
         </is>
       </c>
     </row>
@@ -1424,12 +1424,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>113813</t>
+          <t>114482</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>127692</t>
+          <t>127850</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1439,12 +1439,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>81,66%</t>
+          <t>82,14%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>91,62%</t>
+          <t>91,74%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1459,12 +1459,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>107230</t>
+          <t>106684</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>118639</t>
+          <t>118584</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -1474,12 +1474,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>81,59%</t>
+          <t>81,17%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>90,27%</t>
+          <t>90,23%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1494,12 +1494,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>226674</t>
+          <t>226868</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>243935</t>
+          <t>244070</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -1509,12 +1509,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>83,71%</t>
+          <t>83,78%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>90,08%</t>
+          <t>90,13%</t>
         </is>
       </c>
     </row>
@@ -1537,12 +1537,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11675</t>
+          <t>11517</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>25554</t>
+          <t>24885</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1552,12 +1552,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>8,26%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,34%</t>
+          <t>17,86%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1572,12 +1572,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>12792</t>
+          <t>12847</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>24201</t>
+          <t>24747</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1587,12 +1587,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>9,73%</t>
+          <t>9,77%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>18,41%</t>
+          <t>18,83%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1607,12 +1607,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>26862</t>
+          <t>26727</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>44123</t>
+          <t>43929</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1622,12 +1622,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>9,92%</t>
+          <t>9,87%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>16,29%</t>
+          <t>16,22%</t>
         </is>
       </c>
     </row>
@@ -1767,12 +1767,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>98752</t>
+          <t>99008</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>109105</t>
+          <t>108994</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1782,12 +1782,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>83,94%</t>
+          <t>84,15%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>92,74%</t>
+          <t>92,64%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1802,12 +1802,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>98825</t>
+          <t>98329</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>109289</t>
+          <t>109073</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1817,12 +1817,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>82,68%</t>
+          <t>82,26%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>91,43%</t>
+          <t>91,25%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1837,12 +1837,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>201984</t>
+          <t>201745</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>215909</t>
+          <t>215661</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1852,12 +1852,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>85,16%</t>
+          <t>85,06%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>91,03%</t>
+          <t>90,93%</t>
         </is>
       </c>
     </row>
@@ -1880,12 +1880,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>8546</t>
+          <t>8657</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>18899</t>
+          <t>18643</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1895,12 +1895,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>7,26%</t>
+          <t>7,36%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>16,06%</t>
+          <t>15,85%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1915,12 +1915,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>10243</t>
+          <t>10459</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>20707</t>
+          <t>21203</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -1930,12 +1930,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>8,75%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>17,32%</t>
+          <t>17,74%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1950,12 +1950,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>21274</t>
+          <t>21522</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>35199</t>
+          <t>35438</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -1965,12 +1965,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>8,97%</t>
+          <t>9,07%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>14,84%</t>
+          <t>14,94%</t>
         </is>
       </c>
     </row>
@@ -2110,12 +2110,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>81252</t>
+          <t>81096</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>89977</t>
+          <t>90122</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -2125,12 +2125,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>82,9%</t>
+          <t>82,74%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>91,8%</t>
+          <t>91,95%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2145,12 +2145,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>89661</t>
+          <t>90076</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>103114</t>
+          <t>103271</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -2160,12 +2160,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>77,62%</t>
+          <t>77,98%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>89,27%</t>
+          <t>89,41%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2180,12 +2180,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>175777</t>
+          <t>175478</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>190692</t>
+          <t>191353</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -2195,12 +2195,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>82,32%</t>
+          <t>82,18%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>89,31%</t>
+          <t>89,62%</t>
         </is>
       </c>
     </row>
@@ -2223,12 +2223,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8036</t>
+          <t>7891</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>16761</t>
+          <t>16917</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2238,12 +2238,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>8,05%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>17,1%</t>
+          <t>17,26%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2258,12 +2258,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>12391</t>
+          <t>12234</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>25844</t>
+          <t>25429</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -2273,12 +2273,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>10,73%</t>
+          <t>10,59%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>22,38%</t>
+          <t>22,02%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2293,12 +2293,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>22826</t>
+          <t>22165</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>37741</t>
+          <t>38040</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -2308,12 +2308,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>10,69%</t>
+          <t>10,38%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>17,68%</t>
+          <t>17,82%</t>
         </is>
       </c>
     </row>
@@ -2453,12 +2453,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>56879</t>
+          <t>56563</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>63975</t>
+          <t>63836</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2468,12 +2468,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>82,31%</t>
+          <t>81,85%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>92,58%</t>
+          <t>92,38%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2488,12 +2488,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>71055</t>
+          <t>71071</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>80055</t>
+          <t>80136</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2503,12 +2503,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>80,42%</t>
+          <t>80,43%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>90,6%</t>
+          <t>90,69%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2523,12 +2523,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>131358</t>
+          <t>130868</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>142502</t>
+          <t>142027</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2538,12 +2538,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>83,42%</t>
+          <t>83,11%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>90,5%</t>
+          <t>90,2%</t>
         </is>
       </c>
     </row>
@@ -2566,12 +2566,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>5127</t>
+          <t>5266</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>12223</t>
+          <t>12539</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -2581,12 +2581,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>7,42%</t>
+          <t>7,62%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>17,69%</t>
+          <t>18,15%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2601,12 +2601,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>8305</t>
+          <t>8224</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>17305</t>
+          <t>17289</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -2616,12 +2616,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>9,4%</t>
+          <t>9,31%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>19,58%</t>
+          <t>19,57%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2636,12 +2636,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>14960</t>
+          <t>15435</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>26104</t>
+          <t>26594</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -2651,12 +2651,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>9,8%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>16,58%</t>
+          <t>16,89%</t>
         </is>
       </c>
     </row>
@@ -2796,12 +2796,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>51117</t>
+          <t>50743</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>60461</t>
+          <t>60521</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -2811,12 +2811,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>74,47%</t>
+          <t>73,92%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>88,08%</t>
+          <t>88,17%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2831,12 +2831,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>82721</t>
+          <t>83922</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>96472</t>
+          <t>96602</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -2846,12 +2846,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>72,59%</t>
+          <t>73,65%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>84,66%</t>
+          <t>84,77%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2866,12 +2866,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>138440</t>
+          <t>138190</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>153867</t>
+          <t>154443</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -2881,12 +2881,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>75,82%</t>
+          <t>75,68%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>84,27%</t>
+          <t>84,58%</t>
         </is>
       </c>
     </row>
@@ -2909,12 +2909,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>8183</t>
+          <t>8123</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>17527</t>
+          <t>17901</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2924,12 +2924,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>11,92%</t>
+          <t>11,83%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>25,53%</t>
+          <t>26,08%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2944,12 +2944,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>17480</t>
+          <t>17350</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>31231</t>
+          <t>30030</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2959,12 +2959,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>15,34%</t>
+          <t>15,23%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>27,41%</t>
+          <t>26,35%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2979,12 +2979,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>28729</t>
+          <t>28153</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>44156</t>
+          <t>44406</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -2994,12 +2994,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>15,73%</t>
+          <t>15,42%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>24,18%</t>
+          <t>24,32%</t>
         </is>
       </c>
     </row>
@@ -3139,12 +3139,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>580019</t>
+          <t>580268</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>604952</t>
+          <t>606772</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -3154,12 +3154,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>85,38%</t>
+          <t>85,41%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>89,05%</t>
+          <t>89,32%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3174,12 +3174,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>633875</t>
+          <t>634045</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>662427</t>
+          <t>662192</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -3189,12 +3189,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>83,59%</t>
+          <t>83,61%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>87,35%</t>
+          <t>87,32%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3209,12 +3209,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>1222207</t>
+          <t>1221780</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>1261531</t>
+          <t>1261120</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -3224,12 +3224,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>85,01%</t>
+          <t>84,98%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>87,75%</t>
+          <t>87,72%</t>
         </is>
       </c>
     </row>
@@ -3252,12 +3252,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>74403</t>
+          <t>72583</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>99336</t>
+          <t>99087</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -3267,12 +3267,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>10,95%</t>
+          <t>10,68%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>14,62%</t>
+          <t>14,59%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3287,12 +3287,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>95923</t>
+          <t>96158</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>124475</t>
+          <t>124305</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -3302,12 +3302,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>12,65%</t>
+          <t>12,68%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>16,41%</t>
+          <t>16,39%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3322,12 +3322,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>176174</t>
+          <t>176585</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>215498</t>
+          <t>215925</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -3337,12 +3337,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>12,25%</t>
+          <t>12,28%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>14,99%</t>
+          <t>15,02%</t>
         </is>
       </c>
     </row>
